--- a/Maxdiff-llama-answers/llama_responses_sofia.xlsx
+++ b/Maxdiff-llama-answers/llama_responses_sofia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sofia/Desktop/cognitive-project/Maxdiff-llama-answers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843EF4FC-37D1-544A-813C-106F4625A291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8EECF8-9A52-FB4B-9F00-5FE4E56EA992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="780" windowWidth="27500" windowHeight="16940" xr2:uid="{17896173-B686-5A49-A532-34CA6A521573}"/>
+    <workbookView xWindow="3660" yWindow="500" windowWidth="27500" windowHeight="16940" activeTab="1" xr2:uid="{17896173-B686-5A49-A532-34CA6A521573}"/>
   </bookViews>
   <sheets>
     <sheet name="2i" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="3d" sheetId="4" r:id="rId4"/>
     <sheet name="3e" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2j'!$A$1:$F$106</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="209">
   <si>
     <t>tree:blood</t>
   </si>
@@ -1020,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA74B965-D331-3241-9CBD-F5E9AFB1C773}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -3021,11 +3024,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7450A181-60A6-2846-B36D-457463E5FC00}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104:F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3060,6 +3068,12 @@
       <c r="D2" t="s">
         <v>48</v>
       </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3074,6 +3088,12 @@
       <c r="D3" t="s">
         <v>75</v>
       </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3088,6 +3108,12 @@
       <c r="D4" t="s">
         <v>54</v>
       </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3102,6 +3128,12 @@
       <c r="D5" t="s">
         <v>79</v>
       </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3116,6 +3148,12 @@
       <c r="D6" t="s">
         <v>58</v>
       </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3130,6 +3168,12 @@
       <c r="D7" t="s">
         <v>67</v>
       </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3144,6 +3188,12 @@
       <c r="D8" t="s">
         <v>74</v>
       </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3158,6 +3208,12 @@
       <c r="D9" t="s">
         <v>65</v>
       </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3172,6 +3228,12 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3186,6 +3248,12 @@
       <c r="D11" t="s">
         <v>55</v>
       </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3200,6 +3268,12 @@
       <c r="D12" t="s">
         <v>66</v>
       </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3214,6 +3288,12 @@
       <c r="D13" t="s">
         <v>51</v>
       </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3228,6 +3308,12 @@
       <c r="D14" t="s">
         <v>83</v>
       </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3242,6 +3328,12 @@
       <c r="D15" t="s">
         <v>84</v>
       </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3256,8 +3348,14 @@
       <c r="D16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -3270,8 +3368,14 @@
       <c r="D17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -3284,8 +3388,14 @@
       <c r="D18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -3298,8 +3408,14 @@
       <c r="D19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -3312,8 +3428,14 @@
       <c r="D20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -3326,8 +3448,14 @@
       <c r="D21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -3340,8 +3468,14 @@
       <c r="D22" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -3354,8 +3488,14 @@
       <c r="D23" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -3368,8 +3508,14 @@
       <c r="D24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -3382,8 +3528,14 @@
       <c r="D25" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3396,8 +3548,14 @@
       <c r="D26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -3410,8 +3568,14 @@
       <c r="D27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -3424,8 +3588,14 @@
       <c r="D28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -3438,8 +3608,14 @@
       <c r="D29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -3452,8 +3628,14 @@
       <c r="D30" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -3466,8 +3648,14 @@
       <c r="D31" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -3480,8 +3668,14 @@
       <c r="D32" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -3494,8 +3688,14 @@
       <c r="D33" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3508,8 +3708,14 @@
       <c r="D34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -3522,8 +3728,14 @@
       <c r="D35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -3536,8 +3748,14 @@
       <c r="D36" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -3550,8 +3768,14 @@
       <c r="D37" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -3564,8 +3788,14 @@
       <c r="D38" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -3578,8 +3808,14 @@
       <c r="D39" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -3592,8 +3828,14 @@
       <c r="D40" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -3606,8 +3848,14 @@
       <c r="D41" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -3620,8 +3868,14 @@
       <c r="D42" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -3634,8 +3888,14 @@
       <c r="D43" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -3648,8 +3908,14 @@
       <c r="D44" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3662,8 +3928,14 @@
       <c r="D45" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -3676,8 +3948,14 @@
       <c r="D46" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -3690,8 +3968,14 @@
       <c r="D47" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -3704,8 +3988,14 @@
       <c r="D48" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4008,14 @@
       <c r="D49" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3732,8 +4028,14 @@
       <c r="D50" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -3746,8 +4048,14 @@
       <c r="D51" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -3760,8 +4068,14 @@
       <c r="D52" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -3774,8 +4088,14 @@
       <c r="D53" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3788,8 +4108,14 @@
       <c r="D54" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -3802,8 +4128,14 @@
       <c r="D55" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -3816,8 +4148,14 @@
       <c r="D56" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -3830,8 +4168,14 @@
       <c r="D57" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -3844,8 +4188,14 @@
       <c r="D58" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -3858,8 +4208,14 @@
       <c r="D59" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -3872,8 +4228,14 @@
       <c r="D60" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3886,8 +4248,14 @@
       <c r="D61" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -3900,8 +4268,14 @@
       <c r="D62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4288,14 @@
       <c r="D63" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>53</v>
       </c>
@@ -3928,8 +4308,14 @@
       <c r="D64" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -3942,8 +4328,14 @@
       <c r="D65" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -3956,8 +4348,14 @@
       <c r="D66" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3970,8 +4368,14 @@
       <c r="D67" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -3984,8 +4388,14 @@
       <c r="D68" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -3998,8 +4408,14 @@
       <c r="D69" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -4012,8 +4428,14 @@
       <c r="D70" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -4026,8 +4448,14 @@
       <c r="D71" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -4040,8 +4468,14 @@
       <c r="D72" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -4054,8 +4488,14 @@
       <c r="D73" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>59</v>
+      </c>
+      <c r="F73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -4068,8 +4508,14 @@
       <c r="D74" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -4082,8 +4528,14 @@
       <c r="D75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -4096,8 +4548,14 @@
       <c r="D76" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -4110,8 +4568,14 @@
       <c r="D77" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>45</v>
       </c>
@@ -4124,8 +4588,14 @@
       <c r="D78" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -4138,8 +4608,14 @@
       <c r="D79" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -4152,8 +4628,14 @@
       <c r="D80" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>57</v>
       </c>
@@ -4166,8 +4648,14 @@
       <c r="D81" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>61</v>
       </c>
@@ -4180,8 +4668,14 @@
       <c r="D82" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>65</v>
       </c>
@@ -4194,8 +4688,14 @@
       <c r="D83" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>66</v>
+      </c>
+      <c r="F83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -4208,8 +4708,14 @@
       <c r="D84" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>70</v>
+      </c>
+      <c r="F84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>73</v>
       </c>
@@ -4222,8 +4728,14 @@
       <c r="D85" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>76</v>
+      </c>
+      <c r="F85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>52</v>
       </c>
@@ -4236,8 +4748,14 @@
       <c r="D86" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>76</v>
+      </c>
+      <c r="F86" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>67</v>
       </c>
@@ -4250,8 +4768,14 @@
       <c r="D87" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>71</v>
+      </c>
+      <c r="F87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>56</v>
       </c>
@@ -4264,8 +4788,14 @@
       <c r="D88" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>74</v>
+      </c>
+      <c r="F88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -4278,8 +4808,14 @@
       <c r="D89" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>47</v>
       </c>
@@ -4292,8 +4828,14 @@
       <c r="D90" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -4306,8 +4848,14 @@
       <c r="D91" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>81</v>
+      </c>
+      <c r="F91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>69</v>
       </c>
@@ -4320,8 +4868,14 @@
       <c r="D92" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>83</v>
+      </c>
+      <c r="F92" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>54</v>
       </c>
@@ -4334,8 +4888,14 @@
       <c r="D93" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -4348,8 +4908,14 @@
       <c r="D94" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -4362,8 +4928,14 @@
       <c r="D95" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>72</v>
+      </c>
+      <c r="F95" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>48</v>
       </c>
@@ -4376,8 +4948,14 @@
       <c r="D96" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>52</v>
+      </c>
+      <c r="F96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>66</v>
       </c>
@@ -4390,8 +4968,14 @@
       <c r="D97" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>51</v>
+      </c>
+      <c r="F97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>75</v>
       </c>
@@ -4404,8 +4988,14 @@
       <c r="D98" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>53</v>
+      </c>
+      <c r="F98" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>83</v>
       </c>
@@ -4418,8 +5008,14 @@
       <c r="D99" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>58</v>
+      </c>
+      <c r="F99" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>85</v>
       </c>
@@ -4432,8 +5028,14 @@
       <c r="D100" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>71</v>
+      </c>
+      <c r="F100" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>70</v>
       </c>
@@ -4446,8 +5048,14 @@
       <c r="D101" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>74</v>
+      </c>
+      <c r="F101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -4460,8 +5068,14 @@
       <c r="D102" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>55</v>
+      </c>
+      <c r="F102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>69</v>
       </c>
@@ -4474,8 +5088,14 @@
       <c r="D103" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>46</v>
+      </c>
+      <c r="F103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>77</v>
       </c>
@@ -4488,8 +5108,14 @@
       <c r="D104" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>60</v>
+      </c>
+      <c r="F104" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>65</v>
       </c>
@@ -4502,8 +5128,14 @@
       <c r="D105" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>59</v>
+      </c>
+      <c r="F105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>81</v>
       </c>
@@ -4514,6 +5146,12 @@
         <v>67</v>
       </c>
       <c r="D106" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" t="s">
+        <v>84</v>
+      </c>
+      <c r="F106" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Maxdiff-llama-answers/llama_responses_sofia.xlsx
+++ b/Maxdiff-llama-answers/llama_responses_sofia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sofia/Desktop/cognitive-project/Maxdiff-llama-answers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8EECF8-9A52-FB4B-9F00-5FE4E56EA992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ED8246-E2B0-8746-A604-B338496AEAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="500" windowWidth="27500" windowHeight="16940" activeTab="1" xr2:uid="{17896173-B686-5A49-A532-34CA6A521573}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="27500" windowHeight="16940" activeTab="2" xr2:uid="{17896173-B686-5A49-A532-34CA6A521573}"/>
   </bookViews>
   <sheets>
     <sheet name="2i" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="210">
   <si>
     <t>tree:blood</t>
   </si>
@@ -670,6 +670,9 @@
   </si>
   <si>
     <t>genus:life</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3024,7 +3027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7450A181-60A6-2846-B36D-457463E5FC00}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="E104" sqref="E104:F104"/>
     </sheetView>
   </sheetViews>
@@ -5162,13 +5165,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71EBD53-0737-8F4B-BC86-0F5520A921CE}">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5203,6 +5210,12 @@
       <c r="D2" t="s">
         <v>90</v>
       </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -5217,6 +5230,12 @@
       <c r="D3" t="s">
         <v>94</v>
       </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -5231,6 +5250,12 @@
       <c r="D4" t="s">
         <v>98</v>
       </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -5245,6 +5270,12 @@
       <c r="D5" t="s">
         <v>102</v>
       </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -5259,6 +5290,12 @@
       <c r="D6" t="s">
         <v>106</v>
       </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -5273,6 +5310,12 @@
       <c r="D7" t="s">
         <v>110</v>
       </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -5287,6 +5330,12 @@
       <c r="D8" t="s">
         <v>114</v>
       </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -5301,6 +5350,12 @@
       <c r="D9" t="s">
         <v>118</v>
       </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -5315,6 +5370,12 @@
       <c r="D10" t="s">
         <v>122</v>
       </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -5329,6 +5390,12 @@
       <c r="D11" t="s">
         <v>126</v>
       </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -5343,6 +5410,12 @@
       <c r="D12" t="s">
         <v>104</v>
       </c>
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5357,6 +5430,12 @@
       <c r="D13" t="s">
         <v>129</v>
       </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -5371,6 +5450,12 @@
       <c r="D14" t="s">
         <v>106</v>
       </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -5385,6 +5470,12 @@
       <c r="D15" t="s">
         <v>98</v>
       </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -5399,8 +5490,14 @@
       <c r="D16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -5413,8 +5510,14 @@
       <c r="D17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>126</v>
       </c>
@@ -5427,8 +5530,14 @@
       <c r="D18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -5441,8 +5550,14 @@
       <c r="D19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -5455,8 +5570,14 @@
       <c r="D20" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>123</v>
       </c>
@@ -5469,8 +5590,14 @@
       <c r="D21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -5483,8 +5610,14 @@
       <c r="D22" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -5497,8 +5630,14 @@
       <c r="D23" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -5511,8 +5650,14 @@
       <c r="D24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -5525,8 +5670,14 @@
       <c r="D25" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -5539,8 +5690,14 @@
       <c r="D26" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -5553,8 +5710,14 @@
       <c r="D27" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -5567,8 +5730,14 @@
       <c r="D28" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -5581,8 +5750,14 @@
       <c r="D29" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -5595,8 +5770,14 @@
       <c r="D30" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -5609,8 +5790,14 @@
       <c r="D31" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -5623,8 +5810,14 @@
       <c r="D32" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -5637,8 +5830,14 @@
       <c r="D33" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -5651,8 +5850,17 @@
       <c r="D34" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -5665,8 +5873,14 @@
       <c r="D35" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -5679,8 +5893,14 @@
       <c r="D36" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -5693,8 +5913,14 @@
       <c r="D37" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -5707,8 +5933,14 @@
       <c r="D38" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -5721,8 +5953,14 @@
       <c r="D39" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -5735,8 +5973,14 @@
       <c r="D40" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -5749,8 +5993,14 @@
       <c r="D41" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -5763,8 +6013,14 @@
       <c r="D42" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -5777,8 +6033,14 @@
       <c r="D43" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -5791,8 +6053,14 @@
       <c r="D44" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -5805,8 +6073,14 @@
       <c r="D45" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -5819,8 +6093,14 @@
       <c r="D46" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -5833,8 +6113,14 @@
       <c r="D47" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -5847,8 +6133,14 @@
       <c r="D48" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -5861,8 +6153,14 @@
       <c r="D49" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>128</v>
       </c>
@@ -5875,8 +6173,14 @@
       <c r="D50" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -5889,8 +6193,14 @@
       <c r="D51" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -5903,8 +6213,14 @@
       <c r="D52" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -5917,8 +6233,14 @@
       <c r="D53" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>117</v>
       </c>
@@ -5931,8 +6253,14 @@
       <c r="D54" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -5945,8 +6273,14 @@
       <c r="D55" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>122</v>
       </c>
@@ -5959,8 +6293,14 @@
       <c r="D56" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -5973,8 +6313,14 @@
       <c r="D57" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -5987,8 +6333,14 @@
       <c r="D58" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -6001,8 +6353,14 @@
       <c r="D59" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -6015,8 +6373,14 @@
       <c r="D60" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>107</v>
       </c>
@@ -6029,8 +6393,14 @@
       <c r="D61" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -6043,8 +6413,14 @@
       <c r="D62" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -6057,8 +6433,14 @@
       <c r="D63" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -6071,8 +6453,14 @@
       <c r="D64" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -6085,8 +6473,14 @@
       <c r="D65" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -6099,8 +6493,14 @@
       <c r="D66" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -6113,8 +6513,14 @@
       <c r="D67" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -6127,8 +6533,14 @@
       <c r="D68" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -6141,8 +6553,14 @@
       <c r="D69" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -6155,8 +6573,14 @@
       <c r="D70" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>87</v>
       </c>
@@ -6169,8 +6593,14 @@
       <c r="D71" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>93</v>
+      </c>
+      <c r="F71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -6183,8 +6613,14 @@
       <c r="D72" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>124</v>
       </c>
@@ -6197,8 +6633,14 @@
       <c r="D73" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>126</v>
       </c>
@@ -6211,8 +6653,14 @@
       <c r="D74" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -6225,8 +6673,14 @@
       <c r="D75" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -6239,8 +6693,14 @@
       <c r="D76" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>108</v>
+      </c>
+      <c r="F76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -6253,8 +6713,14 @@
       <c r="D77" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -6267,8 +6733,14 @@
       <c r="D78" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -6281,8 +6753,14 @@
       <c r="D79" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>108</v>
       </c>
@@ -6295,8 +6773,14 @@
       <c r="D80" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -6309,8 +6793,14 @@
       <c r="D81" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>119</v>
+      </c>
+      <c r="F81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -6323,8 +6813,14 @@
       <c r="D82" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -6337,8 +6833,14 @@
       <c r="D83" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>129</v>
+      </c>
+      <c r="F83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>120</v>
       </c>
@@ -6351,8 +6853,14 @@
       <c r="D84" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>120</v>
+      </c>
+      <c r="F84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -6365,8 +6873,14 @@
       <c r="D85" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>96</v>
+      </c>
+      <c r="F85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -6379,8 +6893,14 @@
       <c r="D86" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>117</v>
+      </c>
+      <c r="F86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -6393,8 +6913,14 @@
       <c r="D87" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>87</v>
+      </c>
+      <c r="F87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -6407,8 +6933,14 @@
       <c r="D88" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -6421,8 +6953,14 @@
       <c r="D89" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -6435,8 +6973,14 @@
       <c r="D90" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>120</v>
+      </c>
+      <c r="F90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>125</v>
       </c>
@@ -6449,8 +6993,14 @@
       <c r="D91" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>125</v>
+      </c>
+      <c r="F91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -6463,8 +7013,14 @@
       <c r="D92" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>96</v>
+      </c>
+      <c r="F92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -6477,8 +7033,14 @@
       <c r="D93" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>91</v>
+      </c>
+      <c r="F93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>112</v>
       </c>
@@ -6491,8 +7053,14 @@
       <c r="D94" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>97</v>
+      </c>
+      <c r="F94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -6505,8 +7073,14 @@
       <c r="D95" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>109</v>
+      </c>
+      <c r="F95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6519,8 +7093,14 @@
       <c r="D96" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>95</v>
+      </c>
+      <c r="F96" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -6533,8 +7113,14 @@
       <c r="D97" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>124</v>
+      </c>
+      <c r="F97" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>93</v>
       </c>
@@ -6547,8 +7133,14 @@
       <c r="D98" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>108</v>
+      </c>
+      <c r="F98" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -6561,8 +7153,14 @@
       <c r="D99" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>95</v>
+      </c>
+      <c r="F99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>91</v>
       </c>
@@ -6575,8 +7173,14 @@
       <c r="D100" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -6589,8 +7193,14 @@
       <c r="D101" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>108</v>
+      </c>
+      <c r="F101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>125</v>
       </c>
@@ -6603,8 +7213,14 @@
       <c r="D102" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>125</v>
+      </c>
+      <c r="F102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -6617,8 +7233,14 @@
       <c r="D103" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>112</v>
+      </c>
+      <c r="F103" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>97</v>
       </c>
@@ -6631,8 +7253,14 @@
       <c r="D104" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F104" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -6645,8 +7273,14 @@
       <c r="D105" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>109</v>
+      </c>
+      <c r="F105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>89</v>
       </c>
@@ -6659,8 +7293,14 @@
       <c r="D106" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>101</v>
+      </c>
+      <c r="F106" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -6673,8 +7313,14 @@
       <c r="D107" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>114</v>
+      </c>
+      <c r="F107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -6687,8 +7333,14 @@
       <c r="D108" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>129</v>
+      </c>
+      <c r="F108" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>100</v>
       </c>
@@ -6699,6 +7351,12 @@
         <v>109</v>
       </c>
       <c r="D109" t="s">
+        <v>102</v>
+      </c>
+      <c r="E109" t="s">
+        <v>100</v>
+      </c>
+      <c r="F109" t="s">
         <v>102</v>
       </c>
     </row>

--- a/Maxdiff-llama-answers/llama_responses_sofia.xlsx
+++ b/Maxdiff-llama-answers/llama_responses_sofia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sofia/Desktop/cognitive-project/Maxdiff-llama-answers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ED8246-E2B0-8746-A604-B338496AEAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C92DC0-93B7-6A40-9278-128A2DCE140E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="27500" windowHeight="16940" activeTab="2" xr2:uid="{17896173-B686-5A49-A532-34CA6A521573}"/>
+    <workbookView xWindow="1300" yWindow="1060" windowWidth="27500" windowHeight="16940" activeTab="4" xr2:uid="{17896173-B686-5A49-A532-34CA6A521573}"/>
   </bookViews>
   <sheets>
     <sheet name="2i" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="209">
   <si>
     <t>tree:blood</t>
   </si>
@@ -523,9 +523,6 @@
   </si>
   <si>
     <t>coerce:persuade</t>
-  </si>
-  <si>
-    <t>fuck:rape</t>
   </si>
   <si>
     <t>take:steal</t>
@@ -2092,7 +2089,7 @@
         <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -5167,7 +5164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71EBD53-0737-8F4B-BC86-0F5520A921CE}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -5857,7 +5854,7 @@
         <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -7367,13 +7364,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15F3D6A-CB96-4640-9264-DA9D1D969629}">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -7408,6 +7409,12 @@
       <c r="D2" t="s">
         <v>133</v>
       </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -7422,6 +7429,12 @@
       <c r="D3" t="s">
         <v>137</v>
       </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -7436,6 +7449,12 @@
       <c r="D4" t="s">
         <v>141</v>
       </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -7450,6 +7469,12 @@
       <c r="D5" t="s">
         <v>145</v>
       </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -7464,6 +7489,12 @@
       <c r="D6" t="s">
         <v>149</v>
       </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7478,6 +7509,12 @@
       <c r="D7" t="s">
         <v>153</v>
       </c>
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -7492,1377 +7529,1798 @@
       <c r="D8" t="s">
         <v>157</v>
       </c>
+      <c r="E8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
         <v>162</v>
       </c>
-      <c r="B13" t="s">
-        <v>148</v>
-      </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>155</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
         <v>163</v>
       </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>145</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" t="s">
         <v>141</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>150</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
         <v>154</v>
       </c>
-      <c r="D16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>139</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>149</v>
       </c>
-      <c r="D17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" t="s">
         <v>169</v>
       </c>
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="E41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>134</v>
-      </c>
-      <c r="C22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>132</v>
       </c>
       <c r="B42" t="s">
         <v>153</v>
       </c>
       <c r="C42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
         <v>136</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
         <v>154</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" t="s">
         <v>145</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" t="s">
+        <v>149</v>
+      </c>
+      <c r="F60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" t="s">
+        <v>157</v>
+      </c>
+      <c r="F63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" t="s">
+        <v>168</v>
+      </c>
+      <c r="F66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" t="s">
+        <v>163</v>
+      </c>
+      <c r="F67" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" t="s">
+        <v>132</v>
+      </c>
+      <c r="G68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" t="s">
         <v>130</v>
       </c>
-      <c r="D43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="E69" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" t="s">
         <v>161</v>
-      </c>
-      <c r="D44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" t="s">
-        <v>171</v>
-      </c>
-      <c r="D48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>152</v>
-      </c>
-      <c r="B50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>158</v>
-      </c>
-      <c r="B55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" t="s">
-        <v>138</v>
-      </c>
-      <c r="D56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>155</v>
-      </c>
-      <c r="B59" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>170</v>
-      </c>
-      <c r="B61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>145</v>
-      </c>
-      <c r="B62" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D62" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>152</v>
-      </c>
-      <c r="B63" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>171</v>
-      </c>
-      <c r="B64" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
-      </c>
-      <c r="D64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" t="s">
-        <v>170</v>
-      </c>
-      <c r="C67" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>160</v>
-      </c>
-      <c r="B68" t="s">
-        <v>152</v>
-      </c>
-      <c r="C68" t="s">
-        <v>166</v>
-      </c>
-      <c r="D68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" t="s">
-        <v>165</v>
-      </c>
-      <c r="C70" t="s">
-        <v>167</v>
-      </c>
-      <c r="D70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>161</v>
-      </c>
-      <c r="B71" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>139</v>
-      </c>
-      <c r="B72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" t="s">
-        <v>145</v>
       </c>
       <c r="D72" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" t="s">
+        <v>156</v>
+      </c>
+      <c r="F73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" t="s">
+        <v>137</v>
+      </c>
+      <c r="F74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" t="s">
         <v>168</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C76" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" t="s">
+        <v>131</v>
+      </c>
+      <c r="C80" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" t="s">
+        <v>163</v>
+      </c>
+      <c r="F81" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
         <v>137</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C82" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E82" t="s">
+        <v>168</v>
+      </c>
+      <c r="F82" t="s">
+        <v>161</v>
+      </c>
+      <c r="G82" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" t="s">
+        <v>167</v>
+      </c>
+      <c r="E83" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" t="s">
         <v>169</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D84" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" t="s">
+        <v>134</v>
+      </c>
+      <c r="D85" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" t="s">
+        <v>157</v>
+      </c>
+      <c r="F85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="B86" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" t="s">
+        <v>141</v>
+      </c>
+      <c r="E86" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>164</v>
       </c>
-      <c r="C74" t="s">
-        <v>171</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="B87" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" t="s">
+        <v>133</v>
+      </c>
+      <c r="F87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" t="s">
+        <v>149</v>
+      </c>
+      <c r="D88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E88" t="s">
+        <v>149</v>
+      </c>
+      <c r="F88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" t="s">
+        <v>153</v>
+      </c>
+      <c r="D89" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" t="s">
+        <v>150</v>
+      </c>
+      <c r="F89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90" t="s">
+        <v>140</v>
+      </c>
+      <c r="F90" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="B91" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" t="s">
+        <v>155</v>
+      </c>
+      <c r="E91" t="s">
+        <v>157</v>
+      </c>
+      <c r="F91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" t="s">
+        <v>167</v>
+      </c>
+      <c r="F92" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" t="s">
+        <v>147</v>
+      </c>
+      <c r="C93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" t="s">
+        <v>160</v>
+      </c>
+      <c r="E93" t="s">
+        <v>137</v>
+      </c>
+      <c r="F93" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" t="s">
         <v>132</v>
       </c>
-      <c r="B75" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>146</v>
-      </c>
-      <c r="B76" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="C94" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94" t="s">
+        <v>156</v>
+      </c>
+      <c r="F94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" t="s">
+        <v>162</v>
+      </c>
+      <c r="D95" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" t="s">
         <v>143</v>
       </c>
-      <c r="D76" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C96" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>167</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="D96" t="s">
         <v>158</v>
       </c>
-      <c r="C78" t="s">
-        <v>164</v>
-      </c>
-      <c r="D78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>136</v>
-      </c>
-      <c r="B79" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>168</v>
-      </c>
-      <c r="B80" t="s">
-        <v>139</v>
-      </c>
-      <c r="C80" t="s">
-        <v>156</v>
-      </c>
-      <c r="D80" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>131</v>
-      </c>
-      <c r="B81" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" t="s">
-        <v>142</v>
-      </c>
-      <c r="D81" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>144</v>
-      </c>
-      <c r="B82" t="s">
-        <v>171</v>
-      </c>
-      <c r="C82" t="s">
-        <v>137</v>
-      </c>
-      <c r="D82" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" t="s">
-        <v>153</v>
-      </c>
-      <c r="D83" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="E96" t="s">
+        <v>163</v>
+      </c>
+      <c r="F96" t="s">
         <v>170</v>
-      </c>
-      <c r="B84" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>135</v>
-      </c>
-      <c r="B85" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86" t="s">
-        <v>163</v>
-      </c>
-      <c r="D86" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>130</v>
-      </c>
-      <c r="B87" t="s">
-        <v>144</v>
-      </c>
-      <c r="C87" t="s">
-        <v>156</v>
-      </c>
-      <c r="D87" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>150</v>
-      </c>
-      <c r="B88" t="s">
-        <v>131</v>
-      </c>
-      <c r="C88" t="s">
-        <v>152</v>
-      </c>
-      <c r="D88" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>149</v>
-      </c>
-      <c r="B89" t="s">
-        <v>166</v>
-      </c>
-      <c r="C89" t="s">
-        <v>138</v>
-      </c>
-      <c r="D89" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" t="s">
-        <v>137</v>
-      </c>
-      <c r="C90" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>136</v>
-      </c>
-      <c r="B91" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" t="s">
-        <v>148</v>
-      </c>
-      <c r="D91" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>153</v>
-      </c>
-      <c r="B92" t="s">
-        <v>159</v>
-      </c>
-      <c r="C92" t="s">
-        <v>143</v>
-      </c>
-      <c r="D92" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>151</v>
-      </c>
-      <c r="B93" t="s">
-        <v>155</v>
-      </c>
-      <c r="C93" t="s">
-        <v>170</v>
-      </c>
-      <c r="D93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>142</v>
-      </c>
-      <c r="B94" t="s">
-        <v>157</v>
-      </c>
-      <c r="C94" t="s">
-        <v>134</v>
-      </c>
-      <c r="D94" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>147</v>
-      </c>
-      <c r="B95" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" t="s">
-        <v>146</v>
-      </c>
-      <c r="D95" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>165</v>
-      </c>
-      <c r="B96" t="s">
-        <v>154</v>
-      </c>
-      <c r="C96" t="s">
-        <v>148</v>
-      </c>
-      <c r="D96" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>170</v>
-      </c>
-      <c r="B97" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" t="s">
-        <v>160</v>
-      </c>
-      <c r="D97" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>136</v>
-      </c>
-      <c r="B98" t="s">
-        <v>152</v>
-      </c>
-      <c r="C98" t="s">
-        <v>149</v>
-      </c>
-      <c r="D98" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>138</v>
-      </c>
-      <c r="B99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C99" t="s">
-        <v>153</v>
-      </c>
-      <c r="D99" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>159</v>
-      </c>
-      <c r="B100" t="s">
-        <v>167</v>
-      </c>
-      <c r="C100" t="s">
-        <v>134</v>
-      </c>
-      <c r="D100" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>144</v>
-      </c>
-      <c r="B101" t="s">
-        <v>157</v>
-      </c>
-      <c r="C101" t="s">
-        <v>166</v>
-      </c>
-      <c r="D101" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>145</v>
-      </c>
-      <c r="B102" t="s">
-        <v>168</v>
-      </c>
-      <c r="C102" t="s">
-        <v>151</v>
-      </c>
-      <c r="D102" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>165</v>
-      </c>
-      <c r="B103" t="s">
-        <v>147</v>
-      </c>
-      <c r="C103" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>141</v>
-      </c>
-      <c r="B104" t="s">
-        <v>132</v>
-      </c>
-      <c r="C104" t="s">
-        <v>156</v>
-      </c>
-      <c r="D104" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>169</v>
-      </c>
-      <c r="B105" t="s">
-        <v>131</v>
-      </c>
-      <c r="C105" t="s">
-        <v>163</v>
-      </c>
-      <c r="D105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>171</v>
-      </c>
-      <c r="B106" t="s">
-        <v>143</v>
-      </c>
-      <c r="C106" t="s">
-        <v>164</v>
-      </c>
-      <c r="D106" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -8874,11 +9332,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6950D653-124D-3C4B-B752-D8061FDD2E8E}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -8902,1303 +9363,1861 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
         <v>172</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>173</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>174</v>
       </c>
-      <c r="D2" t="s">
-        <v>175</v>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
         <v>176</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>177</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>178</v>
       </c>
-      <c r="D3" t="s">
-        <v>179</v>
+      <c r="E3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
         <v>180</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>181</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>182</v>
       </c>
-      <c r="D4" t="s">
-        <v>183</v>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
         <v>184</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>185</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>186</v>
       </c>
-      <c r="D5" t="s">
-        <v>187</v>
+      <c r="E5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
         <v>188</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>189</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>190</v>
       </c>
-      <c r="D6" t="s">
-        <v>191</v>
+      <c r="E6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
         <v>192</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>193</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>194</v>
       </c>
-      <c r="D7" t="s">
-        <v>195</v>
+      <c r="E7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" t="s">
         <v>196</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>197</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>198</v>
       </c>
-      <c r="D8" t="s">
-        <v>199</v>
+      <c r="E8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
         <v>200</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>201</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>202</v>
       </c>
-      <c r="D9" t="s">
-        <v>203</v>
+      <c r="E9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
       <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" t="s">
         <v>205</v>
       </c>
-      <c r="D10" t="s">
-        <v>206</v>
+      <c r="E10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="E11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="E12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="E13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" t="s">
         <v>184</v>
       </c>
-      <c r="D14" t="s">
-        <v>199</v>
+      <c r="F14" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="E15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="E16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" t="s">
         <v>186</v>
       </c>
-      <c r="C19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>205</v>
-      </c>
-      <c r="B22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" t="s">
-        <v>187</v>
-      </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>184</v>
       </c>
-      <c r="B24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" t="s">
-        <v>203</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>206</v>
-      </c>
-      <c r="B29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>191</v>
-      </c>
-      <c r="B30" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>198</v>
       </c>
       <c r="B36" t="s">
         <v>60</v>
       </c>
       <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" t="s">
         <v>172</v>
-      </c>
-      <c r="D36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>187</v>
-      </c>
-      <c r="B39" t="s">
-        <v>173</v>
       </c>
       <c r="C39" t="s">
         <v>60</v>
       </c>
       <c r="D39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="D45" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" t="s">
         <v>204</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E48" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" t="s">
         <v>197</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E53" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" t="s">
         <v>185</v>
-      </c>
-      <c r="D40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" t="s">
-        <v>174</v>
-      </c>
-      <c r="C41" t="s">
-        <v>190</v>
-      </c>
-      <c r="D41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" t="s">
-        <v>201</v>
-      </c>
-      <c r="C42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>200</v>
-      </c>
-      <c r="B43" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>199</v>
-      </c>
-      <c r="B44" t="s">
-        <v>196</v>
-      </c>
-      <c r="C44" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>184</v>
-      </c>
-      <c r="B45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B47" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" t="s">
-        <v>186</v>
-      </c>
-      <c r="D47" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" t="s">
-        <v>194</v>
-      </c>
-      <c r="C48" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>197</v>
-      </c>
-      <c r="B50" t="s">
-        <v>179</v>
-      </c>
-      <c r="C50" t="s">
-        <v>201</v>
-      </c>
-      <c r="D50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>204</v>
-      </c>
-      <c r="B51" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" t="s">
-        <v>202</v>
-      </c>
-      <c r="C52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>187</v>
-      </c>
-      <c r="B53" t="s">
-        <v>180</v>
-      </c>
-      <c r="C53" t="s">
-        <v>206</v>
-      </c>
-      <c r="D53" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>192</v>
-      </c>
-      <c r="B54" t="s">
-        <v>175</v>
-      </c>
-      <c r="C54" t="s">
-        <v>203</v>
-      </c>
-      <c r="D54" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>181</v>
-      </c>
-      <c r="B55" t="s">
-        <v>186</v>
       </c>
       <c r="C55" t="s">
         <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="E55" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" t="s">
+        <v>206</v>
+      </c>
+      <c r="E58" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" t="s">
+        <v>179</v>
+      </c>
+      <c r="F59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" t="s">
         <v>196</v>
       </c>
-      <c r="B56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>177</v>
-      </c>
-      <c r="B57" t="s">
-        <v>184</v>
-      </c>
-      <c r="C57" t="s">
-        <v>204</v>
-      </c>
-      <c r="D57" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>177</v>
-      </c>
-      <c r="B58" t="s">
-        <v>203</v>
-      </c>
-      <c r="C58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>182</v>
-      </c>
-      <c r="B59" t="s">
-        <v>180</v>
-      </c>
-      <c r="C59" t="s">
-        <v>184</v>
-      </c>
-      <c r="D59" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>181</v>
-      </c>
-      <c r="B60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C60" t="s">
-        <v>205</v>
-      </c>
-      <c r="D60" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>206</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="D61" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" t="s">
         <v>196</v>
       </c>
-      <c r="C61" t="s">
-        <v>197</v>
-      </c>
-      <c r="D61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
       </c>
       <c r="C62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" t="s">
+        <v>173</v>
+      </c>
+      <c r="E62" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
         <v>185</v>
       </c>
-      <c r="D62" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="D65" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" t="s">
+        <v>186</v>
+      </c>
+      <c r="F65" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" t="s">
+        <v>194</v>
+      </c>
+      <c r="F67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" t="s">
         <v>190</v>
       </c>
-      <c r="B63" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" t="s">
-        <v>179</v>
-      </c>
-      <c r="D63" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>183</v>
-      </c>
-      <c r="B64" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="E69" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" t="s">
+        <v>189</v>
+      </c>
+      <c r="F70" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" t="s">
         <v>198</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C71" t="s">
         <v>187</v>
-      </c>
-      <c r="C65" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>173</v>
-      </c>
-      <c r="B66" t="s">
-        <v>189</v>
-      </c>
-      <c r="C66" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>177</v>
-      </c>
-      <c r="B67" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" t="s">
-        <v>180</v>
-      </c>
-      <c r="D67" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" t="s">
-        <v>173</v>
-      </c>
-      <c r="C68" t="s">
-        <v>172</v>
-      </c>
-      <c r="D68" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>205</v>
-      </c>
-      <c r="B69" t="s">
-        <v>176</v>
-      </c>
-      <c r="C69" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>206</v>
-      </c>
-      <c r="B70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" t="s">
-        <v>204</v>
-      </c>
-      <c r="D70" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>174</v>
-      </c>
-      <c r="B71" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" t="s">
-        <v>188</v>
       </c>
       <c r="D71" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" t="s">
+        <v>195</v>
+      </c>
+      <c r="F73" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" t="s">
+        <v>196</v>
+      </c>
+      <c r="D74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" t="s">
+        <v>196</v>
+      </c>
+      <c r="F74" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" t="s">
+        <v>200</v>
+      </c>
+      <c r="E75" t="s">
+        <v>200</v>
+      </c>
+      <c r="F75" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" t="s">
+        <v>173</v>
+      </c>
+      <c r="F76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" t="s">
+        <v>189</v>
+      </c>
+      <c r="F78" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>190</v>
+      </c>
+      <c r="B79" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" t="s">
         <v>175</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D79" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" t="s">
+        <v>196</v>
+      </c>
+      <c r="F79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" t="s">
+        <v>195</v>
+      </c>
+      <c r="C80" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" t="s">
         <v>200</v>
       </c>
-      <c r="C72" t="s">
-        <v>184</v>
-      </c>
-      <c r="D72" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>202</v>
-      </c>
-      <c r="B73" t="s">
-        <v>187</v>
-      </c>
-      <c r="C73" t="s">
-        <v>196</v>
-      </c>
-      <c r="D73" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="E80" t="s">
+        <v>195</v>
+      </c>
+      <c r="F80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81" t="s">
         <v>198</v>
       </c>
-      <c r="B74" t="s">
-        <v>183</v>
-      </c>
-      <c r="C74" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>179</v>
-      </c>
-      <c r="B75" t="s">
-        <v>181</v>
-      </c>
-      <c r="C75" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>188</v>
-      </c>
-      <c r="B76" t="s">
-        <v>179</v>
-      </c>
-      <c r="C76" t="s">
-        <v>205</v>
-      </c>
-      <c r="D76" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" t="s">
-        <v>173</v>
-      </c>
-      <c r="C77" t="s">
-        <v>192</v>
-      </c>
-      <c r="D77" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>183</v>
-      </c>
-      <c r="B78" t="s">
-        <v>190</v>
-      </c>
-      <c r="C78" t="s">
-        <v>194</v>
-      </c>
-      <c r="D78" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>191</v>
-      </c>
-      <c r="B79" t="s">
-        <v>197</v>
-      </c>
-      <c r="C79" t="s">
-        <v>176</v>
-      </c>
-      <c r="D79" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80" t="s">
-        <v>196</v>
-      </c>
-      <c r="C80" t="s">
-        <v>202</v>
-      </c>
-      <c r="D80" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>195</v>
-      </c>
-      <c r="B81" t="s">
-        <v>172</v>
-      </c>
-      <c r="C81" t="s">
-        <v>200</v>
-      </c>
-      <c r="D81" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F81" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>60</v>
       </c>
       <c r="B82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" t="s">
+        <v>188</v>
+      </c>
+      <c r="F82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" t="s">
+        <v>197</v>
+      </c>
+      <c r="F83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" t="s">
+        <v>180</v>
+      </c>
+      <c r="E84" t="s">
+        <v>174</v>
+      </c>
+      <c r="F84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85" t="s">
+        <v>189</v>
+      </c>
+      <c r="F85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" t="s">
+        <v>190</v>
+      </c>
+      <c r="D86" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>206</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" t="s">
+        <v>179</v>
+      </c>
+      <c r="F87" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
+        <v>204</v>
+      </c>
+      <c r="E88" t="s">
+        <v>178</v>
+      </c>
+      <c r="F88" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" t="s">
+        <v>200</v>
+      </c>
+      <c r="F89" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="s">
         <v>177</v>
-      </c>
-      <c r="D82" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>182</v>
-      </c>
-      <c r="B83" t="s">
-        <v>198</v>
-      </c>
-      <c r="C83" t="s">
-        <v>193</v>
-      </c>
-      <c r="D83" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>204</v>
-      </c>
-      <c r="B84" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>186</v>
-      </c>
-      <c r="B85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C85" t="s">
-        <v>197</v>
-      </c>
-      <c r="D85" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>181</v>
-      </c>
-      <c r="B86" t="s">
-        <v>203</v>
-      </c>
-      <c r="C86" t="s">
-        <v>191</v>
-      </c>
-      <c r="D86" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>207</v>
-      </c>
-      <c r="B87" t="s">
-        <v>199</v>
-      </c>
-      <c r="C87" t="s">
-        <v>180</v>
-      </c>
-      <c r="D87" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>206</v>
-      </c>
-      <c r="B88" t="s">
-        <v>195</v>
-      </c>
-      <c r="C88" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>183</v>
-      </c>
-      <c r="B89" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" t="s">
-        <v>192</v>
-      </c>
-      <c r="D89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>194</v>
-      </c>
-      <c r="B90" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" t="s">
-        <v>178</v>
       </c>
       <c r="D90" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>181</v>
+      </c>
+      <c r="F90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B91" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" t="s">
+        <v>197</v>
+      </c>
+      <c r="E91" t="s">
+        <v>197</v>
+      </c>
+      <c r="F91" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" t="s">
         <v>176</v>
       </c>
-      <c r="C91" t="s">
-        <v>202</v>
-      </c>
-      <c r="D91" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>193</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>184</v>
       </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
         <v>186</v>
       </c>
-      <c r="D92" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>187</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>171</v>
+      </c>
+      <c r="E93" t="s">
+        <v>187</v>
+      </c>
+      <c r="F93" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" t="s">
         <v>188</v>
       </c>
-      <c r="D93" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>173</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>189</v>
       </c>
-      <c r="C94" t="s">
-        <v>190</v>
-      </c>
       <c r="D94" t="s">
+        <v>187</v>
+      </c>
+      <c r="E94" t="s">
+        <v>187</v>
+      </c>
+      <c r="F94" t="s">
         <v>188</v>
       </c>
     </row>
